--- a/10_SRS/Common function.xlsx
+++ b/10_SRS/Common function.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,45 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Tên hàm</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Người tạo</t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t>Người update</t>
+  </si>
+  <si>
+    <t>Ngày update</t>
+  </si>
+  <si>
+    <t>Path/Folder/File</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,15 +58,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,18 +80,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +408,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:I2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
